--- a/项目与服务器端口绑定.xlsx
+++ b/项目与服务器端口绑定.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
   <si>
     <t>服务器ip</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test-client-rest2014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>agentLogin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,14 +121,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yang-resource-admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flycan-rest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>192.168.0.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,6 +142,58 @@
   </si>
   <si>
     <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源开放平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支付平台（已作废）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口平台（目前只用到redis的删除接口）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest API平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源管理平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者管理平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商开发者管理平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发者开放平台（包含代理商开发者）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest API平台（主）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rest API平台（备）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SR监控平台（停用）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商用户登录DEMO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -570,9 +610,10 @@
     <col min="4" max="4" width="14.75" customWidth="1"/>
     <col min="5" max="5" width="13.375" customWidth="1"/>
     <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -591,8 +632,11 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
@@ -611,8 +655,11 @@
       <c r="F2">
         <v>8012</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" t="s">
@@ -627,8 +674,11 @@
       <c r="F3">
         <v>8011</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" t="s">
@@ -643,12 +693,15 @@
       <c r="F4">
         <v>8010</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5">
         <v>8005</v>
@@ -659,8 +712,11 @@
       <c r="F5">
         <v>8009</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="2" t="s">
@@ -675,14 +731,17 @@
       <c r="F6" s="2">
         <v>8013</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>7005</v>
@@ -691,10 +750,13 @@
         <v>88</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="2" t="s">
@@ -707,14 +769,17 @@
         <v>80</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="2">
         <v>7003</v>
@@ -723,16 +788,19 @@
         <v>89</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
         <v>8005</v>
@@ -743,8 +811,11 @@
       <c r="F10" s="2">
         <v>8009</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G10" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" t="s">
@@ -759,8 +830,11 @@
       <c r="F11">
         <v>8013</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>17</v>
       </c>
@@ -768,7 +842,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2">
         <v>8003</v>
@@ -779,194 +853,155 @@
       <c r="F12" s="2">
         <v>8013</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2">
-        <v>8008</v>
+        <v>8007</v>
       </c>
       <c r="E13" s="2">
-        <v>8080</v>
+        <v>8000</v>
       </c>
       <c r="F13" s="2">
-        <v>8012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>8011</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
-        <v>8002</v>
+        <v>8006</v>
       </c>
       <c r="E14" s="2">
-        <v>8081</v>
+        <v>88</v>
       </c>
       <c r="F14" s="2">
-        <v>8014</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>8010</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2">
-        <v>8007</v>
+        <v>8001</v>
       </c>
       <c r="E15" s="2">
-        <v>8000</v>
+        <v>8082</v>
       </c>
       <c r="F15" s="2">
-        <v>8011</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>8015</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="2">
-        <v>8006</v>
-      </c>
-      <c r="E16" s="2">
-        <v>88</v>
-      </c>
-      <c r="F16" s="2">
-        <v>8010</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>8005</v>
+      </c>
+      <c r="E16">
+        <v>8445</v>
+      </c>
+      <c r="F16">
+        <v>8009</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
+      <c r="B17" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="2">
-        <v>8001</v>
-      </c>
-      <c r="E17" s="2">
-        <v>8082</v>
-      </c>
-      <c r="F17" s="2">
-        <v>8015</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>8005</v>
+      </c>
+      <c r="E17">
+        <v>8080</v>
+      </c>
+      <c r="F17">
+        <v>8009</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="2" t="s">
-        <v>30</v>
+      <c r="B18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
       </c>
       <c r="D18">
         <v>8005</v>
       </c>
       <c r="E18">
-        <v>8445</v>
+        <v>8085</v>
       </c>
       <c r="F18">
         <v>8009</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
-      <c r="B19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
+      <c r="B19" s="5"/>
+      <c r="C19" t="s">
+        <v>14</v>
       </c>
       <c r="D19">
-        <v>8005</v>
+        <v>8008</v>
       </c>
       <c r="E19">
         <v>8080</v>
       </c>
       <c r="F19">
-        <v>8009</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20">
-        <v>8005</v>
-      </c>
-      <c r="E20">
-        <v>8085</v>
-      </c>
-      <c r="F20">
-        <v>8009</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21">
-        <v>8008</v>
-      </c>
-      <c r="E21">
-        <v>8080</v>
-      </c>
-      <c r="F21">
         <v>8012</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22">
-        <v>8006</v>
-      </c>
-      <c r="E22">
-        <v>8081</v>
-      </c>
-      <c r="F22">
-        <v>8010</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="5"/>
-      <c r="C23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="2">
-        <v>8004</v>
-      </c>
-      <c r="E23" s="2">
-        <v>8445</v>
-      </c>
-      <c r="F23" s="2">
-        <v>8013</v>
+      <c r="G19" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="A12:A22"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="A12:A19"/>
     <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="B10:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
